--- a/TESTE GERADOR AUTOMÁTICO DE FOLHA/modelo-tabela-folha-ponto-teste.xlsx
+++ b/TESTE GERADOR AUTOMÁTICO DE FOLHA/modelo-tabela-folha-ponto-teste.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\OneDrive\Documentos\Projetos Computação\Automatizacao-folha-de-ponto\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E26466-DCCF-48D7-8D36-530D2689ADA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>DATA ATUAL</t>
   </si>
@@ -46,30 +40,6 @@
   </si>
   <si>
     <t>RUBRICA</t>
-  </si>
-  <si>
-    <t>TERÇA-FEIRA</t>
-  </si>
-  <si>
-    <t>QUARTA-FEIRA</t>
-  </si>
-  <si>
-    <t>QUINTA-FEIRA</t>
-  </si>
-  <si>
-    <t>SÁBADO</t>
-  </si>
-  <si>
-    <t>SEXTA-FEIRA</t>
-  </si>
-  <si>
-    <t>DOMINGO</t>
-  </si>
-  <si>
-    <t>SEGUNDA-FEIRA</t>
-  </si>
-  <si>
-    <t>FERIADO</t>
   </si>
   <si>
     <t>NOME:</t>
@@ -93,9 +63,6 @@
     <t xml:space="preserve"> __________________________________________</t>
   </si>
   <si>
-    <t>PERÍODO: 01 A 31 DE JANEIRO DE 2024</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 </t>
   </si>
@@ -106,7 +73,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd&quot;/&quot;mm&quot;/&quot;yyyy"/>
   </numFmts>
@@ -666,11 +633,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I650"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" showWhiteSpace="0" view="pageLayout" topLeftCell="B29" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" showWhiteSpace="0" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -694,7 +661,7 @@
     </row>
     <row r="2" spans="3:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="28" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -704,9 +671,7 @@
       <c r="I2" s="28"/>
     </row>
     <row r="3" spans="3:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="14" t="s">
-        <v>22</v>
-      </c>
+      <c r="C3" s="14"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
@@ -716,7 +681,7 @@
     </row>
     <row r="4" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="23" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="21"/>
@@ -727,13 +692,13 @@
     </row>
     <row r="5" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="15" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
       <c r="G5" s="25" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="H5" s="18"/>
       <c r="I5" s="19"/>
@@ -762,35 +727,17 @@
       </c>
     </row>
     <row r="7" spans="3:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="1">
-        <v>45292</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
     </row>
     <row r="8" spans="3:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="1">
-        <v>45293</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -798,12 +745,8 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="3:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="1">
-        <v>45294</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -811,12 +754,8 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="3:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="1">
-        <v>45295</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -824,12 +763,8 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="3:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="1">
-        <v>45296</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -837,58 +772,26 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="3:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="1">
-        <v>45297</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
     </row>
     <row r="13" spans="3:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="1">
-        <v>45298</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
     </row>
     <row r="14" spans="3:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="1">
-        <v>45299</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -896,12 +799,8 @@
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="3:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="1">
-        <v>45300</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -909,12 +808,8 @@
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="3:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="1">
-        <v>45301</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -922,12 +817,8 @@
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="3:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="1">
-        <v>45302</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -935,12 +826,8 @@
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="3:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="1">
-        <v>45303</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -948,58 +835,26 @@
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="3:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="1">
-        <v>45304</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
     </row>
     <row r="20" spans="3:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="1">
-        <v>45305</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
     </row>
     <row r="21" spans="3:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="1">
-        <v>45306</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1007,12 +862,8 @@
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="3:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="1">
-        <v>45307</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -1020,12 +871,8 @@
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="3:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="1">
-        <v>45308</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1033,12 +880,8 @@
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="3:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="1">
-        <v>45309</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -1046,12 +889,8 @@
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="3:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="1">
-        <v>45310</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -1059,58 +898,26 @@
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="3:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="1">
-        <v>45311</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
     </row>
     <row r="27" spans="3:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="1">
-        <v>45312</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
     </row>
     <row r="28" spans="3:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="1">
-        <v>45313</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -1118,12 +925,8 @@
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="3:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="1">
-        <v>45314</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -1131,12 +934,8 @@
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="3:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="1">
-        <v>45315</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -1144,12 +943,8 @@
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="3:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="1">
-        <v>45316</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -1157,12 +952,8 @@
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="3:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="1">
-        <v>45317</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -1170,58 +961,26 @@
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="3:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="1">
-        <v>45318</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
     </row>
     <row r="34" spans="3:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="1">
-        <v>45319</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
     </row>
     <row r="35" spans="3:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="1">
-        <v>45320</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="2"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -1229,12 +988,8 @@
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="3:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="1">
-        <v>45321</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="8"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -1242,12 +997,8 @@
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="3:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="1">
-        <v>45322</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="2"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
@@ -1265,32 +1016,32 @@
     </row>
     <row r="39" spans="3:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39" s="13" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="10"/>
       <c r="F39" s="4"/>
       <c r="G39" s="12" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="6"/>
     </row>
     <row r="40" spans="3:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="33" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D40" s="34"/>
       <c r="E40" s="34"/>
       <c r="G40" s="35" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H40" s="34"/>
       <c r="I40" s="36"/>
     </row>
     <row r="41" spans="3:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="29" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D41" s="30"/>
       <c r="E41" s="30"/>
@@ -1301,7 +1052,7 @@
     </row>
     <row r="42" spans="3:9" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C42" s="31" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D42" s="32"/>
       <c r="E42" s="32"/>
